--- a/output_by_subject/EE518.xlsx
+++ b/output_by_subject/EE518.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,72 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2011EE28</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2011EE22</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2011EE20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
